--- a/datamining/final_data/sorted2019_nltk.xlsx
+++ b/datamining/final_data/sorted2019_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ALI2"/>
+  <dimension ref="A1:AKB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,19 +442,19 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>students</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>students</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>leadership</t>
@@ -487,14 +487,14 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>research</t>
@@ -507,14 +507,14 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>qualitative</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>peer</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
           <t>adolescents</t>
@@ -527,24 +527,24 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>high-ability</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>profoundly</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>virtual</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>social</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>high-ability</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ideology</t>
@@ -562,79 +562,79 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>transparency</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>commitment</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>improvement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>openness</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>quarterly</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>openness</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>transparency</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>commitment</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>improvement</t>
-        </is>
-      </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>identified</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>neural</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>scholar</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>betts</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>leader</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>george</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>advocate</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>scholar</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>leader</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>neural</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>machine</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>george</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>betts</t>
-        </is>
-      </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>theories</t>
@@ -642,34 +642,34 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>talented</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>intellectually</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>higher</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>intellectually</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>decision-making</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>talented</t>
-        </is>
-      </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>academic</t>
@@ -677,94 +677,94 @@
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>expectations</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
+          <t>disadvantaged</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>acceleration</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>emotional</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>child</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>acceleration</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantaged</t>
-        </is>
-      </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
+          <t>inequity</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
           <t>level</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>inequity</t>
-        </is>
-      </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
+          <t>1939-july</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>networks</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>t.</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>september</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>james</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>webb</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>t.</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>1939-july</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>september</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>networks</t>
-        </is>
-      </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>metacognition</t>
@@ -782,232 +782,232 @@
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
+          <t>occupational/career</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
           <t>longitudinal</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>poverty</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>researcher</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>processes</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>economically</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>participants</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>occupational/career</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>using</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>intelligence</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>economically</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>processes</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>questioning</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>reading</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>shared</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>reading</t>
-        </is>
-      </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>20</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
+          <t>adolescence</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>academically</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
           <t>equity</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>adolescence</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>women</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>asian</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>practices</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>hs</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>time</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>victimization</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
+          <t>aggression</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>implications</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
           <t>among</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>supervised</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>victimization</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>aggression</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>supervised</t>
-        </is>
-      </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>case</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
           <t>self-regulation</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
+          <t>classrooms</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
           <t>group</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>programs</t>
-        </is>
-      </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>backgrounds</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>hispanic</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>hispanic</t>
+          <t>phase</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>backgrounds</t>
+          <t>also</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>phase</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>may</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
           <t>article</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>influence</t>
-        </is>
-      </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>discussed</t>
@@ -1062,19 +1062,19 @@
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>lewis</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
           <t>strategy</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>lewis</t>
-        </is>
-      </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>single-case</t>
@@ -1087,64 +1087,64 @@
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
+          <t>gifted</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
           <t>complexity</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>bayesian</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>trustworthiness</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>reviewers</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
           <t>range</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>bayesian</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>texas</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>elements</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>bias</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>enrollment</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>approaches</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>four</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>trustworthiness</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>enrollment</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>reviewers</t>
-        </is>
-      </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>methods</t>
@@ -1152,22 +1152,22 @@
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>however</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>texas</t>
+          <t>little</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
@@ -1177,69 +1177,69 @@
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
+          <t>advanced</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>particularly</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>factors</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>whether</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>across</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
           <t>effects</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>within</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>advanced</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>particularly</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>factors</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>related</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>conception</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>though</t>
@@ -1247,169 +1247,169 @@
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>construct</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>little</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>construct</t>
+          <t>results</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>american</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
+          <t>career</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>parental</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>concept</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
           <t>first</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>instruction</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>career</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>american</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>concept</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>experiences</t>
-        </is>
-      </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>parental</t>
+          <t>subgroups</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>authors</t>
+          <t>state</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
+          <t>proportionality</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>mandates</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>variance</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>process-based</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>disproportional</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>despite</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>demographic</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>symbolic</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>changed</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>advocates</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>practical</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>emerging</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>courses</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>extracurriculars</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
           <t>interests</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>program</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>proportionality</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>practical</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>extracurriculars</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>emerging</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>courses</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>mandates</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>demographic</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>despite</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>symbolic</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>disproportional</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>subgroups</t>
-        </is>
-      </c>
-      <c r="GN1" s="1" t="inlineStr">
-        <is>
-          <t>changed</t>
-        </is>
-      </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>characteristics</t>
@@ -1422,487 +1422,487 @@
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>process-based</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>advocates</t>
+          <t>early</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>beliefs</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>key</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>test</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
+          <t>professionally</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>advice</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>evidence</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>mapping</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>prosocial</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>methodologies</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>applied</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>findings</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>highlighting</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>demonstration</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
           <t>explained</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>trajectories</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>associations</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>substance</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>along</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>talents</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>algorithms</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>served</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>associations</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>demonstration</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>highlighting</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>conceptions</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>boys</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
-          <t>talents</t>
-        </is>
-      </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>less</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>algorithms</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>professionally</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>prosocial</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>living</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
-        <is>
-          <t>evidence</t>
-        </is>
-      </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>along</t>
-        </is>
-      </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>conceptions</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>models</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>explored</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>boys</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>substance</t>
-        </is>
-      </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>trajectories</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>findings</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>methodologies</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>deciding</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>understanding</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>theoretical</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>reflect</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>therefore</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>coursework</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>including</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>theory</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>reflect</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>including</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>coursework</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
-        <is>
-          <t>understanding</t>
-        </is>
-      </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>understand</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>therefore</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>australian</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>designing</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>refined</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>accelerate</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
+          <t>perceptions</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
           <t>opportunities</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
-        <is>
-          <t>australian</t>
-        </is>
-      </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>mapping</t>
+          <t>revealed</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>beliefs</t>
+          <t>willingness</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>deciding</t>
+          <t>father</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>implement</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>preferences</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>advice</t>
+          <t>twice-exceptional</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
+          <t>modern</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
           <t>impact</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>preferences</t>
-        </is>
-      </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
+          <t>relationships</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
           <t>mostly</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
-        <is>
-          <t>relationships</t>
-        </is>
-      </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>expressive</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>writing</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>exceptional</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>implement</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>writing</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>making</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>coaching</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>design</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>apply</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>learn</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>who</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>criticisms</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>modern</t>
+          <t>meanings</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>willingness</t>
+          <t>formula</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>twice-exceptional</t>
+          <t>public</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>brief</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>criticisms</t>
+          <t>subsets</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>widely</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
+          <t>examining</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
           <t>seventh</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>rule</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>earlier</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>provide</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>reported</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>regression</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>earlier</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>allowance</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>application</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>questions</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>purpose</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>meanings</t>
-        </is>
-      </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>widely</t>
+          <t>context</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
@@ -1912,62 +1912,62 @@
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>examining</t>
+          <t>psychometrics</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>history</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>highest</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>underrepresentation</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>demographics</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>subsets</t>
+          <t>practitioners</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>definition</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>demographics</t>
+          <t>furthermore</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>century</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>furthermore</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
@@ -1977,1747 +1977,1747 @@
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>highest</t>
+          <t>modeling</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>due</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>create</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>prevalence</t>
+          <t>course</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>underrepresentation</t>
+          <t>constructs</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>psychometrics</t>
+          <t>26</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>finally</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>practitioners</t>
+          <t>information</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>modeling</t>
+          <t>best</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>grew</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>create</t>
+          <t>goals</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>constructs</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>finally</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>throughout</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>outcomes</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>story</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>childhood</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>due</t>
+          <t>since</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
+          <t>woven</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>contributed</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>crucial</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>explores</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>evident</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>psychosocial</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>internal</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>objectives</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>drove</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>effective</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>everyday</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>meet</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>established</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>presented</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>adulthood</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>1950s</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>personally</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>iq</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>viewed</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
           <t>15-year</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>grew</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>goals</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>meet</t>
-        </is>
-      </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>addition</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>foundation</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>explores</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>adulthood</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
-        <is>
-          <t>outcomes</t>
-        </is>
-      </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>groups</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>asset</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
-        <is>
-          <t>childhood</t>
-        </is>
-      </c>
-      <c r="MH1" s="1" t="inlineStr">
-        <is>
-          <t>everyday</t>
-        </is>
-      </c>
-      <c r="MI1" s="1" t="inlineStr">
-        <is>
-          <t>differences</t>
-        </is>
-      </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>major</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>established</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>contributed</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>crucial</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>drove</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>effective</t>
-        </is>
-      </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>enabled</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>evident</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>investigated</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>woven</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>lower</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>viewed</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>story</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>suggestions</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>groups</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>themes</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>since</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>psychosocial</t>
-        </is>
-      </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>yet</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>throughout</t>
+          <t>manuscript</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>yet</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>mentors</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>look</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>likely</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>journals</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>internal</t>
+          <t>monitored</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>presented</t>
+          <t>necessity</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>personally</t>
+          <t>intended</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>objectives</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>1950s</t>
+          <t>need</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>manuscripts</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>lower</t>
+          <t>research-oriented</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
+          <t>based</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>presenting</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>publication</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>represent</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>guide</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>reviewer</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
           <t>scholars</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>terminology</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>types</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>wide</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>inclinations</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>foci</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>focuses</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>describing</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>frequently</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>acknowledges</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>broad</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>contribute</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>addresses</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>fit</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
-        <is>
-          <t>foci</t>
-        </is>
-      </c>
-      <c r="NV1" s="1" t="inlineStr">
-        <is>
-          <t>focuses</t>
-        </is>
-      </c>
-      <c r="NW1" s="1" t="inlineStr">
-        <is>
-          <t>guide</t>
-        </is>
-      </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>perspectives</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
-        <is>
-          <t>inclinations</t>
-        </is>
-      </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>inquiry</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>intended</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>journals</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>need</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
-        <is>
-          <t>likely</t>
-        </is>
-      </c>
-      <c r="OE1" s="1" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>emphasis</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>examples</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
-        <is>
-          <t>manuscript</t>
-        </is>
-      </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>manuscripts</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>mentors</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>monitored</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>necessity</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>ability</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>explain</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>emphasis</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>wide</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>addresses</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>ability</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>publication</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>represent</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>frequently</t>
-        </is>
-      </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>research-oriented</t>
+          <t>orientation</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>outline</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>third</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>reviewer</t>
+          <t>transaction-focused</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>acknowledges</t>
+          <t>transactional</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>sources</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>principles</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>meaning-making</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>excel</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>contribute</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>describing</t>
+          <t>experiencing</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
-          <t>presenting</t>
+          <t>females</t>
         </is>
       </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>submitted</t>
+          <t>system</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
+          <t>disorders</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>self-knowledge</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>resulted</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>promotes</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>rendering</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>past</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>realize</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>posits</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>rather</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>person-based</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>psychology</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>philosophical</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>desire</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>alternative</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>academics</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>construes</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>careers</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>considering</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>conceptual</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>achieve</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>comes</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
           <t>depression</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>disorders</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>desire</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>collective</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>cad</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>affordance</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>aim</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>articulate</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>decision</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>rendering</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>achieve</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>democratic</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>interdependency</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>applications</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>interactionist</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>interactionism</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>inclusive</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>interactionism</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>interactionist</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>interdependency</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>transactional</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>meaning-making</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>transaction-focused</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>nature</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>third</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>orientation</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>outline</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>past</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>person-based</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>philosophical</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>posits</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>principles</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>promotes</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>psychology</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>self-knowledge</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>rather</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>realize</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>inclusion</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>ideas</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>helping</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>collective</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>resulted</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
+          <t>evolution</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>dialectical</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>emerged</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>elaborate</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>egalitarianism</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>ecological</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
           <t>accentuate</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>affordance</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>aim</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>alternative</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>applications</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>articulate</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>cad</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>comes</t>
-        </is>
-      </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>evolution</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>conceptual</t>
+          <t>filial</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>considering</t>
+          <t>preprint</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>construes</t>
+          <t>gifts</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>democratic</t>
+          <t>increasingly</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>dialectical</t>
+          <t>inequality</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
-          <t>ecological</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>egalitarianism</t>
+          <t>long</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>elaborate</t>
+          <t>makers</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>emerged</t>
+          <t>media</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>encourage</t>
+          <t>national</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>academics</t>
+          <t>policies</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
+          <t>policy</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>proficiency</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>proportional</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>pushed</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>reporting</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>screened</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>services</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>societal</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>sought</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>states</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>track</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>gets</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>figures</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>well-being</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>undue</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>underserved</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>several</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>seven</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>self-expectations</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>same-aged</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>additional</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>articles</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>assessment</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>concerned</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>correlated</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>differ</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>disabilities</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>disproportionality</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>eligibility</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>example</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>combat</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>pressures</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>significant</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>sociodemographics</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>stagnant</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>stem</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>taking</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>took</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>trends</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>proud</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>pressure</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>perceived</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>motivate</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>majority</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>isolation</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>in-depth</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>immigrant</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>secondary</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>piety</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>catholic</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>gpa</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>482,418</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>act</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>analytic</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>ap</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>boosts</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>conventional</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>elective</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>exploratory</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
           <t>engineering</t>
         </is>
       </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>excel</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>preprint</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>gets</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>gifts</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>increasingly</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>inequality</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>limited</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>makers</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>paper</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>policies</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>policy</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>proficiency</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>frustrated</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>proportional</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>pushed</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>reporting</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>screened</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>services</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>societal</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>sought</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>states</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>track</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>way</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>additional</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>well-being</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>undue</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>underserved</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>several</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>seven</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>self-expectations</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>same-aged</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>proud</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>pressures</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>pressure</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>articles</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>figures</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>assessment</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>combat</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>concerned</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>correlated</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>experienced</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>disabilities</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>disproportionality</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>eligibility</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>example</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>without</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>differ</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>sociodemographics</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>stagnant</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>stem</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>taking</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>technology</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>took</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>trends</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>piety</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>perceived</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>motivate</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>isolation</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>in-depth</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>immigrant</t>
-        </is>
-      </c>
       <c r="UW1" s="1" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>high-poverty</t>
         </is>
       </c>
       <c r="UX1" s="1" t="inlineStr">
         <is>
-          <t>filial</t>
+          <t>included</t>
         </is>
       </c>
       <c r="UY1" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>private</t>
         </is>
       </c>
       <c r="UZ1" s="1" t="inlineStr">
         <is>
-          <t>experiencing</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="VA1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="VB1" s="1" t="inlineStr">
         <is>
-          <t>females</t>
+          <t>low-income</t>
         </is>
       </c>
       <c r="VC1" s="1" t="inlineStr">
         <is>
+          <t>homeschooled</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>investigative</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>improved</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
           <t>honors</t>
         </is>
       </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>improved</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>analytic</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>catholic</t>
-        </is>
-      </c>
       <c r="VG1" s="1" t="inlineStr">
         <is>
-          <t>conventional</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="VH1" s="1" t="inlineStr">
         <is>
-          <t>elective</t>
+          <t>lack</t>
         </is>
       </c>
       <c r="VI1" s="1" t="inlineStr">
         <is>
-          <t>act</t>
+          <t>connections</t>
         </is>
       </c>
       <c r="VJ1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>observations</t>
         </is>
       </c>
       <c r="VK1" s="1" t="inlineStr">
         <is>
-          <t>exploratory</t>
+          <t>instructor</t>
         </is>
       </c>
       <c r="VL1" s="1" t="inlineStr">
         <is>
-          <t>gpa</t>
+          <t>interactions</t>
         </is>
       </c>
       <c r="VM1" s="1" t="inlineStr">
         <is>
-          <t>high-poverty</t>
+          <t>clarifying</t>
         </is>
       </c>
       <c r="VN1" s="1" t="inlineStr">
         <is>
-          <t>homeschooled</t>
+          <t>intent</t>
         </is>
       </c>
       <c r="VO1" s="1" t="inlineStr">
         <is>
-          <t>ap</t>
+          <t>tools</t>
         </is>
       </c>
       <c r="VP1" s="1" t="inlineStr">
         <is>
-          <t>boosts</t>
+          <t>improve</t>
         </is>
       </c>
       <c r="VQ1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>hosted</t>
         </is>
       </c>
       <c r="VR1" s="1" t="inlineStr">
         <is>
-          <t>investigative</t>
+          <t>gathered</t>
         </is>
       </c>
       <c r="VS1" s="1" t="inlineStr">
         <is>
-          <t>low-income</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="VT1" s="1" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>frequent</t>
         </is>
       </c>
       <c r="VU1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>occur</t>
         </is>
       </c>
       <c r="VV1" s="1" t="inlineStr">
         <is>
-          <t>private</t>
+          <t>five</t>
         </is>
       </c>
       <c r="VW1" s="1" t="inlineStr">
         <is>
-          <t>482,418</t>
+          <t>expressed</t>
         </is>
       </c>
       <c r="VX1" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="VY1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>error</t>
         </is>
       </c>
       <c r="VZ1" s="1" t="inlineStr">
         <is>
-          <t>instructor</t>
+          <t>broader</t>
         </is>
       </c>
       <c r="WA1" s="1" t="inlineStr">
         <is>
-          <t>intent</t>
+          <t>serves</t>
         </is>
       </c>
       <c r="WB1" s="1" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>operator</t>
         </is>
       </c>
       <c r="WC1" s="1" t="inlineStr">
         <is>
-          <t>hosted</t>
+          <t>borrowed</t>
         </is>
       </c>
       <c r="WD1" s="1" t="inlineStr">
         <is>
-          <t>interactions</t>
+          <t>thus</t>
         </is>
       </c>
       <c r="WE1" s="1" t="inlineStr">
         <is>
-          <t>gathered</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="WF1" s="1" t="inlineStr">
         <is>
+          <t>technical</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>synchronous</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>suggesting</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>sessions</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>add-ons</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>arose</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>via</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>realities</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>preference</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>pedagogy</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>assigning</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>outweighs</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>enrolled</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>learner</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>contributor</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>brick-and-mortar</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>asynchronous</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>metacognitive</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>misalignment</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>motivational</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>newer</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>notions</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>qualities</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>relating</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
           <t>shaped</t>
         </is>
       </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>borrowed</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>fully</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>frequent</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>assigning</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>five</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>expressed</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>arose</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>broader</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>enrolled</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>clarifying</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>either</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>lack</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>add-ons</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>observations</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>via</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>tools</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>thus</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>terms</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>technical</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>synchronous</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>suggesting</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>sessions</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>serves</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>saw</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>realities</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>connections</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>preference</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>pedagogy</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>outweighs</t>
-        </is>
-      </c>
       <c r="XL1" s="1" t="inlineStr">
         <is>
-          <t>operator</t>
+          <t>supported</t>
         </is>
       </c>
       <c r="XM1" s="1" t="inlineStr">
         <is>
-          <t>occur</t>
+          <t>valuable</t>
         </is>
       </c>
       <c r="XN1" s="1" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>treated</t>
         </is>
       </c>
       <c r="XO1" s="1" t="inlineStr">
         <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>classmates</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>knowledge-a</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>creativity</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>diversifying</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>disuse</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>distinguish</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>distinguishes</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>difficulties</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>especially</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>expertise</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>garnered</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>giftednes</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
           <t>content</t>
         </is>
       </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>diversifying</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>board</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>asynchronous</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge-a</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>learner</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>metacognitive</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>mind</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>misalignment</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>motivational</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>newer</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>notions</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>old</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>position</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>qualities</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>relating</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>valuable</t>
-        </is>
-      </c>
       <c r="YG1" s="1" t="inlineStr">
         <is>
-          <t>treated</t>
+          <t>historically</t>
         </is>
       </c>
       <c r="YH1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="YI1" s="1" t="inlineStr">
@@ -3727,1692 +3727,1527 @@
       </c>
       <c r="YJ1" s="1" t="inlineStr">
         <is>
-          <t>historically</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="YK1" s="1" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>share</t>
         </is>
       </c>
       <c r="YL1" s="1" t="inlineStr">
         <is>
-          <t>brick-and-mortar</t>
+          <t>misapprehensions</t>
         </is>
       </c>
       <c r="YM1" s="1" t="inlineStr">
         <is>
-          <t>disuse</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="YN1" s="1" t="inlineStr">
         <is>
-          <t>contributor</t>
+          <t>begun</t>
         </is>
       </c>
       <c r="YO1" s="1" t="inlineStr">
         <is>
-          <t>core</t>
+          <t>simulated</t>
         </is>
       </c>
       <c r="YP1" s="1" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>realized</t>
         </is>
       </c>
       <c r="YQ1" s="1" t="inlineStr">
         <is>
-          <t>difficulties</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="YR1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="YS1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="YT1" s="1" t="inlineStr">
         <is>
-          <t>distinguish</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="YU1" s="1" t="inlineStr">
         <is>
-          <t>distinguishes</t>
+          <t>network</t>
         </is>
       </c>
       <c r="YV1" s="1" t="inlineStr">
         <is>
-          <t>supported</t>
+          <t>mechanics</t>
         </is>
       </c>
       <c r="YW1" s="1" t="inlineStr">
         <is>
-          <t>especially</t>
+          <t>limitations</t>
         </is>
       </c>
       <c r="YX1" s="1" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="YY1" s="1" t="inlineStr">
         <is>
-          <t>garnered</t>
+          <t>found</t>
         </is>
       </c>
       <c r="YZ1" s="1" t="inlineStr">
         <is>
-          <t>giftednes</t>
+          <t>followed</t>
         </is>
       </c>
       <c r="ZA1" s="1" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>explanation</t>
         </is>
       </c>
       <c r="ZB1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>existed</t>
         </is>
       </c>
       <c r="ZC1" s="1" t="inlineStr">
         <is>
-          <t>classmates</t>
+          <t>exceptionally</t>
         </is>
       </c>
       <c r="ZD1" s="1" t="inlineStr">
         <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>underlying</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>utilized</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>9-14</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>concerns</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>hierarchical</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>guidelines</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>grade-based</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>existing</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>educational</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>different</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualization</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>abilities</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>concepts</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>comparison</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>analyses</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>activities</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>computing</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>become</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>interpretations</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>automated</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>largely</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>lacking</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>intense</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>characterized</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>greater</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>communities</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>feelings</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>extreme</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>disappear</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>developmental</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>declining</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>decline</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>later</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>latter</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>vulnerable</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>advent</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>accurate</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>youths</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>adolescent</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>specifically</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>benefit</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>regardless</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>protector</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>pronounced</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>neighborhoods</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>much</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>involved</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>enjoy</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>exaggerated</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>favorable</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>functioning</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>graders</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>greatly</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>predictor</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>preference-</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>popularity</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>nonidentified</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>provided</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>nominations</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>heterogeneity</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>indicator</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>moderated</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>records</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>rejection</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>underscore</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>tend</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>status-adjustment</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>standardized</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>self-reported</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>seeks</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>reputation-based</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>enhance</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>attenuated</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>multidimensional</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>participated</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>misapprehensions</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>9-14</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>utilized</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>underlying</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>simulated</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>curve</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>problems</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>overview</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>network</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>mechanics</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>limitations</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>issues</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>followed</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>explanation</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>existed</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>abilities</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>analyses</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>include</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>hierarchical</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>guidelines</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>grade-based</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>existing</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>educational</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>different</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>concerns</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualization</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>concepts</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>cluster</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>better</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>exceptionally</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>greater</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>levels</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>latter</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>later</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>largely</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>lacking</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>intense</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>compared</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>girls</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>computing</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>continue</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>feelings</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>extreme</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>disappear</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>developmental</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>declining</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>mobile</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>much</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>neighborhoods</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>pronounced</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>begun</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>become</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>automated</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>advent</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>accurate</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>youths</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>vulnerable</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>specifically</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>adolescent</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>benefit</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>characterized</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>regardless</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>protector</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>communities</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>interpretations</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>realized</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>involved</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>enhance</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>exaggerated</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>favorable</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>functioning</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>graders</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>greatly</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>heterogeneity</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>indicator</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>moderated</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>nominations</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>nonidentified</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>popularity</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>scaling</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>seventeen</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>sorted</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>sorting</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>student-generated</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>structured</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>well-researched</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>aggressive</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
         <is>
           <t>positively</t>
         </is>
       </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>predictor</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>preference-</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>provided</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>records</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>rejection</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>reputation-based</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>seeks</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>self-reported</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>standardized</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>status-adjustment</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>tend</t>
-        </is>
-      </c>
       <c r="ADQ1" s="1" t="inlineStr">
         <is>
-          <t>underscore</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="ADR1" s="1" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>44</t>
         </is>
       </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>enjoy</t>
+          <t>42</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>decline</t>
+          <t>voice</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>327</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
-          <t>seventeen</t>
+          <t>supporting</t>
         </is>
       </c>
       <c r="ADW1" s="1" t="inlineStr">
         <is>
-          <t>student-generated</t>
+          <t>background</t>
         </is>
       </c>
       <c r="ADX1" s="1" t="inlineStr">
         <is>
-          <t>structured</t>
+          <t>collected</t>
         </is>
       </c>
       <c r="ADY1" s="1" t="inlineStr">
         <is>
-          <t>sorting</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="ADZ1" s="1" t="inlineStr">
         <is>
-          <t>clear</t>
+          <t>917</t>
         </is>
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>allowed</t>
         </is>
       </c>
       <c r="AEB1" s="1" t="inlineStr">
         <is>
-          <t>share</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="AEC1" s="1" t="inlineStr">
         <is>
-          <t>scaling</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="AED1" s="1" t="inlineStr">
         <is>
-          <t>supporting</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>rating</t>
+          <t>clearer</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>density</t>
         </is>
       </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>federal</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>equation</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>multidimensional</t>
+          <t>addressing</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>agency</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>subjects</t>
+          <t>city</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>sorted</t>
+          <t>civil</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>voice</t>
+          <t>contributing</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>well-researched</t>
+          <t>court</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>decisions</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>aggressive</t>
+          <t>defined</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>determinant</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>expenditures</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>district-level</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>districts</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>attenuated</t>
+          <t>diverse</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>donna</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>allowed</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
+          <t>equitable</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>ethnically</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>evaluate</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>disadvantage</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>tested</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>grounded</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>reality</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>proposed</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>postulated</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>participation</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>multicultural</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>mechanism</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>means</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>limits</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>k-12</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>investigate</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>inversely</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>interval</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>inequities</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>inequitable</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>increasing</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
+          <t>i.e.</t>
+        </is>
+      </c>
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>ford</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>r-2</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>recognized</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
+          <t>incorporated</t>
+        </is>
+      </c>
+      <c r="AGA1" s="1" t="inlineStr">
+        <is>
+          <t>referral</t>
+        </is>
+      </c>
+      <c r="AGB1" s="1" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="AGC1" s="1" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
           <t>town</t>
         </is>
       </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>917</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>increasing</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>i.e.</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>background</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>clearer</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>collected</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>inequitable</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>ford</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>federal</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>expenditures</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
+      <c r="AGF1" s="1" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>procedures</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>qualitatively</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
+          <t>quantitatively</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
+          <t>suburb</t>
+        </is>
+      </c>
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>resulting</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>simultaneously</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>socioeconomic</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>structural</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>survey</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>statewide</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>standards</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>rural</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>regressions</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>responses</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>insights</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>0.095</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>0.129</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>0.170</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>21st</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>and/or</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>areas</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>classist</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
+        <is>
+          <t>concludes</t>
+        </is>
+      </c>
+      <c r="AHH1" s="1" t="inlineStr">
+        <is>
+          <t>28.4</t>
+        </is>
+      </c>
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>contributions</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>controversial</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>creation</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>discussions</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>earliest</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>emphasizing</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>enrich</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>environmental</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
         <is>
           <t>accounted</t>
         </is>
       </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>addressing</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>agency</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>civil</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>contributing</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>court</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>decisions</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>defined</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>density</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>determinant</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>district-level</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>districts</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>diverse</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>donna</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>equitable</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>ethnically</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>evaluate</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantage</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>interval</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>referral</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>recognized</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>reality</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>r-2</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>proposed</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>postulated</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>only</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>teacher</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>inversely</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>investigate</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>office</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>multicultural</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>mechanism</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>means</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>limits</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>tested</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>survey</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>structural</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>k-12</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>equation</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>grounded</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>incorporated</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>suburb</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>interview</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>statewide</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>standards</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>procedures</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>qualitatively</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>inequities</t>
-        </is>
-      </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>quantitatively</t>
+          <t>able</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>resulting</t>
+          <t>bloom</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>simultaneously</t>
+          <t>routine</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>socioeconomic</t>
+          <t>settings</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>regressions</t>
+          <t>multiple-probe</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
+          <t>meaningful</t>
+        </is>
+      </c>
+      <c r="AHY1" s="1" t="inlineStr">
+        <is>
           <t>maintained</t>
         </is>
       </c>
-      <c r="AHY1" s="1" t="inlineStr">
-        <is>
-          <t>28.4</t>
-        </is>
-      </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>environmental</t>
+          <t>taxonomy</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
+          <t>trained</t>
+        </is>
+      </c>
+      <c r="AIB1" s="1" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="AIC1" s="1" t="inlineStr">
+        <is>
+          <t>twice</t>
+        </is>
+      </c>
+      <c r="AID1" s="1" t="inlineStr">
+        <is>
+          <t>interventions</t>
+        </is>
+      </c>
+      <c r="AIE1" s="1" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="AIF1" s="1" t="inlineStr">
+        <is>
+          <t>indicated</t>
+        </is>
+      </c>
+      <c r="AIG1" s="1" t="inlineStr">
+        <is>
+          <t>increased</t>
+        </is>
+      </c>
+      <c r="AIH1" s="1" t="inlineStr">
+        <is>
+          <t>establish</t>
+        </is>
+      </c>
+      <c r="AII1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrated</t>
+        </is>
+      </c>
+      <c r="AIJ1" s="1" t="inlineStr">
+        <is>
+          <t>coached</t>
+        </is>
+      </c>
+      <c r="AIK1" s="1" t="inlineStr">
+        <is>
+          <t>causal</t>
+        </is>
+      </c>
+      <c r="AIL1" s="1" t="inlineStr">
+        <is>
+          <t>evaluation</t>
+        </is>
+      </c>
+      <c r="AIM1" s="1" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="AIN1" s="1" t="inlineStr">
+        <is>
+          <t>explanations</t>
+        </is>
+      </c>
+      <c r="AIO1" s="1" t="inlineStr">
+        <is>
+          <t>overlooked</t>
+        </is>
+      </c>
+      <c r="AIP1" s="1" t="inlineStr">
+        <is>
+          <t>pioneering</t>
+        </is>
+      </c>
+      <c r="AIQ1" s="1" t="inlineStr">
+        <is>
+          <t>provides</t>
+        </is>
+      </c>
+      <c r="AIR1" s="1" t="inlineStr">
+        <is>
+          <t>psychologists</t>
+        </is>
+      </c>
+      <c r="AIS1" s="1" t="inlineStr">
+        <is>
+          <t>racist</t>
+        </is>
+      </c>
+      <c r="AIT1" s="1" t="inlineStr">
+        <is>
+          <t>record</t>
+        </is>
+      </c>
+      <c r="AIU1" s="1" t="inlineStr">
+        <is>
+          <t>relevant</t>
+        </is>
+      </c>
+      <c r="AIV1" s="1" t="inlineStr">
+        <is>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="AIW1" s="1" t="inlineStr">
+        <is>
+          <t>sexist</t>
+        </is>
+      </c>
+      <c r="AIX1" s="1" t="inlineStr">
+        <is>
+          <t>sloppy</t>
+        </is>
+      </c>
+      <c r="AIY1" s="1" t="inlineStr">
+        <is>
+          <t>teach</t>
+        </is>
+      </c>
+      <c r="AIZ1" s="1" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="AJA1" s="1" t="inlineStr">
+        <is>
+          <t>thinker</t>
+        </is>
+      </c>
+      <c r="AJB1" s="1" t="inlineStr">
+        <is>
+          <t>today</t>
+        </is>
+      </c>
+      <c r="AJC1" s="1" t="inlineStr">
+        <is>
+          <t>vindication</t>
+        </is>
+      </c>
+      <c r="AJD1" s="1" t="inlineStr">
+        <is>
+          <t>weak</t>
+        </is>
+      </c>
+      <c r="AJE1" s="1" t="inlineStr">
+        <is>
+          <t>worst</t>
+        </is>
+      </c>
+      <c r="AJF1" s="1" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="AJG1" s="1" t="inlineStr">
+        <is>
+          <t>philosophical/theoretical</t>
+        </is>
+      </c>
+      <c r="AJH1" s="1" t="inlineStr">
+        <is>
+          <t>overemphasis</t>
+        </is>
+      </c>
+      <c r="AJI1" s="1" t="inlineStr">
+        <is>
+          <t>extent</t>
+        </is>
+      </c>
+      <c r="AJJ1" s="1" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="AJK1" s="1" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="AJL1" s="1" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="AJM1" s="1" t="inlineStr">
+        <is>
+          <t>genetic</t>
+        </is>
+      </c>
+      <c r="AJN1" s="1" t="inlineStr">
+        <is>
+          <t>grouping</t>
+        </is>
+      </c>
+      <c r="AJO1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="AJP1" s="1" t="inlineStr">
+        <is>
+          <t>inclination</t>
+        </is>
+      </c>
+      <c r="AJQ1" s="1" t="inlineStr">
+        <is>
+          <t>includes</t>
+        </is>
+      </c>
+      <c r="AJR1" s="1" t="inlineStr">
+        <is>
+          <t>revised</t>
+        </is>
+      </c>
+      <c r="AJS1" s="1" t="inlineStr">
+        <is>
+          <t>inventiveness</t>
+        </is>
+      </c>
+      <c r="AJT1" s="1" t="inlineStr">
+        <is>
+          <t>justified</t>
+        </is>
+      </c>
+      <c r="AJU1" s="1" t="inlineStr">
+        <is>
+          <t>large-scale</t>
+        </is>
+      </c>
+      <c r="AJV1" s="1" t="inlineStr">
+        <is>
+          <t>lessons</t>
+        </is>
+      </c>
+      <c r="AJW1" s="1" t="inlineStr">
+        <is>
+          <t>meritocracy</t>
+        </is>
+      </c>
+      <c r="AJX1" s="1" t="inlineStr">
+        <is>
+          <t>modify</t>
+        </is>
+      </c>
+      <c r="AJY1" s="1" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="AJZ1" s="1" t="inlineStr">
+        <is>
+          <t>opinion</t>
+        </is>
+      </c>
+      <c r="AKA1" s="1" t="inlineStr">
+        <is>
+          <t>opinions</t>
+        </is>
+      </c>
+      <c r="AKB1" s="1" t="inlineStr">
+        <is>
           <t>994</t>
-        </is>
-      </c>
-      <c r="AIB1" s="1" t="inlineStr">
-        <is>
-          <t>0.095</t>
-        </is>
-      </c>
-      <c r="AIC1" s="1" t="inlineStr">
-        <is>
-          <t>0.129</t>
-        </is>
-      </c>
-      <c r="AID1" s="1" t="inlineStr">
-        <is>
-          <t>21st</t>
-        </is>
-      </c>
-      <c r="AIE1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>and/or</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>areas</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>classist</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>concludes</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>contributions</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>controversial</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
-        <is>
-          <t>creation</t>
-        </is>
-      </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>discussions</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>earliest</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>emphasizing</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>additionally</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>young</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>settings</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>multiple-probe</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>interventions</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
-        <is>
-          <t>indicated</t>
-        </is>
-      </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>increased</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>establish</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>responses</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>revised</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>routine</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrated</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>coached</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>causal</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>taxonomy</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>twice</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>bloom</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>enrich</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>evaluation</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>12.9</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>overlooked</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>philosophical/theoretical</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>pioneering</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>provides</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>psychologists</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>racist</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>record</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>relevant</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>seen</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>sexist</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>sloppy</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>teach</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>0.170</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>tests</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>thinker</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>today</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>vindication</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
-        <is>
-          <t>weak</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>worst</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>overemphasis</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>origin</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>opinions</t>
-        </is>
-      </c>
-      <c r="AKP1" s="1" t="inlineStr">
-        <is>
-          <t>inclination</t>
-        </is>
-      </c>
-      <c r="AKQ1" s="1" t="inlineStr">
-        <is>
-          <t>explanations</t>
-        </is>
-      </c>
-      <c r="AKR1" s="1" t="inlineStr">
-        <is>
-          <t>extent</t>
-        </is>
-      </c>
-      <c r="AKS1" s="1" t="inlineStr">
-        <is>
-          <t>face</t>
-        </is>
-      </c>
-      <c r="AKT1" s="1" t="inlineStr">
-        <is>
-          <t>meaningful</t>
-        </is>
-      </c>
-      <c r="AKU1" s="1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>genetic</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>grouping</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>historical</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>includes</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>opinion</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>insights</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>inventiveness</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>justified</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>large-scale</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>lessons</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>meritocracy</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>modify</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>ones</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>95</t>
         </is>
       </c>
     </row>
@@ -5427,10 +5262,10 @@
         <v>0.71</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="F2" t="n">
         <v>0.6799999999999999</v>
@@ -5439,7 +5274,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I2" t="n">
         <v>0.59</v>
@@ -5451,10 +5286,10 @@
         <v>0.55</v>
       </c>
       <c r="L2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.53</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.52</v>
       </c>
       <c r="N2" t="n">
         <v>0.52</v>
@@ -5475,19 +5310,19 @@
         <v>0.47</v>
       </c>
       <c r="T2" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="U2" t="n">
         <v>0.46</v>
       </c>
       <c r="V2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.4500000000000001</v>
       </c>
-      <c r="W2" t="n">
-        <v>0.45</v>
-      </c>
       <c r="X2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Y2" t="n">
         <v>0.43</v>
@@ -5544,10 +5379,10 @@
         <v>0.39</v>
       </c>
       <c r="AQ2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AR2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.37</v>
       </c>
       <c r="AS2" t="n">
         <v>0.37</v>
@@ -5577,10 +5412,10 @@
         <v>0.35</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="BD2" t="n">
         <v>0.33</v>
@@ -5622,10 +5457,10 @@
         <v>0.31</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="BS2" t="n">
         <v>0.3</v>
@@ -5634,10 +5469,10 @@
         <v>0.3</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="BW2" t="n">
         <v>0.29</v>
@@ -5646,13 +5481,13 @@
         <v>0.29</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="CB2" t="n">
         <v>0.28</v>
@@ -5670,7 +5505,7 @@
         <v>0.28</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="CH2" t="n">
         <v>0.27</v>
@@ -5688,7 +5523,7 @@
         <v>0.27</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="CN2" t="n">
         <v>0.26</v>
@@ -5697,10 +5532,10 @@
         <v>0.26</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="CR2" t="n">
         <v>0.25</v>
@@ -5709,7 +5544,7 @@
         <v>0.25</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="CU2" t="n">
         <v>0.24</v>
@@ -5757,10 +5592,10 @@
         <v>0.23</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="DL2" t="n">
         <v>0.22</v>
@@ -5778,10 +5613,10 @@
         <v>0.22</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="DS2" t="n">
         <v>0.21</v>
@@ -5853,10 +5688,10 @@
         <v>0.2</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="ER2" t="n">
         <v>0.19</v>
@@ -5910,10 +5745,10 @@
         <v>0.19</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FK2" t="n">
         <v>0.18</v>
@@ -5949,10 +5784,10 @@
         <v>0.18</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="FX2" t="n">
         <v>0.17</v>
@@ -6018,13 +5853,13 @@
         <v>0.17</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="GV2" t="n">
         <v>0.16</v>
@@ -6111,10 +5946,10 @@
         <v>0.16</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="HZ2" t="n">
         <v>0.15</v>
@@ -6171,22 +6006,22 @@
         <v>0.15</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="IX2" t="n">
         <v>0.14</v>
@@ -6237,25 +6072,25 @@
         <v>0.14</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="JU2" t="n">
         <v>0.13</v>
@@ -6306,31 +6141,31 @@
         <v>0.13</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="KT2" t="n">
         <v>0.12</v>
@@ -6375,43 +6210,43 @@
         <v>0.12</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LU2" t="n">
         <v>0.11</v>
@@ -6522,43 +6357,43 @@
         <v>0.11</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="NR2" t="n">
         <v>0.1</v>
@@ -6648,43 +6483,43 @@
         <v>0.1</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="PH2" t="n">
         <v>0.09</v>
@@ -7152,61 +6987,61 @@
         <v>0.09</v>
       </c>
       <c r="VG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="VZ2" t="n">
         <v>0.08</v>
@@ -7824,82 +7659,82 @@
         <v>0.08</v>
       </c>
       <c r="ADW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AED2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AES2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEW2" t="n">
         <v>0.07000000000000001</v>
@@ -8307,105 +8142,6 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AKB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALI2" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
